--- a/SITE-MODELO/img/Precos.xlsx
+++ b/SITE-MODELO/img/Precos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8EECB7A-15AB-4864-83AE-A46335B4736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97490C39-DAA1-4EFC-A1F6-FCF204EC6091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informações" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t>Computadores</t>
   </si>
   <si>
-    <t>Gamer, para trabalho, residencial, montado por você!</t>
+    <t>Gamer, para trabalho, residencial.</t>
   </si>
   <si>
     <t>A Inovations T.I trabalha com todos os tipos de computadores!</t>
@@ -60,7 +60,7 @@
     <t>Fones</t>
   </si>
   <si>
-    <t>Bluetooth e com fio</t>
+    <t>Bluetooth e com fio.</t>
   </si>
   <si>
     <t>Vendemos fones Com Fio e fones Bluetooth.</t>
@@ -69,7 +69,7 @@
     <t>Periféricos</t>
   </si>
   <si>
-    <t xml:space="preserve">Kit's prontos </t>
+    <t>Kit's prontos.</t>
   </si>
   <si>
     <t>Possuimos periféricos a preço benefício e com qualidade.</t>
@@ -78,7 +78,7 @@
     <t>Manunteção</t>
   </si>
   <si>
-    <t>Em sua casa</t>
+    <t>Em sua casa.</t>
   </si>
   <si>
     <t>Realizamos todos os tipos de manuntenção, atendendo necessidade.</t>
@@ -87,7 +87,7 @@
     <t>Monitores</t>
   </si>
   <si>
-    <t>Gamer's e para trabalho</t>
+    <t>Gamer's e para trabalho.</t>
   </si>
   <si>
     <t>Vendemos monitores gamer's e para fins residenciais e a trabalho.</t>
@@ -102,7 +102,7 @@
     <t>Teclados</t>
   </si>
   <si>
-    <t xml:space="preserve">Gamer's </t>
+    <t>Gamer's.</t>
   </si>
   <si>
     <t>Possuimos uma ampla variedade de teclado, em ênfase gamer's.</t>
@@ -111,7 +111,7 @@
     <t>Mouses</t>
   </si>
   <si>
-    <t>Profissionais</t>
+    <t>Profissionais.</t>
   </si>
   <si>
     <t>Mouses profissionais, com uma sensibilidade ótima!</t>
@@ -852,74 +852,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -927,60 +870,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -988,6 +886,121 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1000,98 +1013,65 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1609,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G8:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1618,34 +1598,34 @@
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="55.42578125" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="7:14" ht="21">
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
     </row>
     <row r="10" spans="7:14" ht="21">
-      <c r="H10" s="99" t="s">
+      <c r="H10" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="99" t="s">
+      <c r="I10" s="35"/>
+      <c r="J10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="100"/>
-      <c r="L10" s="99" t="s">
+      <c r="K10" s="35"/>
+      <c r="L10" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="100"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="7:14">
       <c r="H11" s="1" t="s">
@@ -1654,14 +1634,14 @@
       <c r="I11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="4" t="s">
+      <c r="K11" s="86"/>
+      <c r="L11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="7:14">
       <c r="H12" s="1" t="s">
@@ -1670,14 +1650,14 @@
       <c r="I12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="4" t="s">
+      <c r="K12" s="86"/>
+      <c r="L12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="7:14">
       <c r="H13" s="1" t="s">
@@ -1686,14 +1666,14 @@
       <c r="I13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="4" t="s">
+      <c r="K13" s="86"/>
+      <c r="L13" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="7:14">
       <c r="H14" s="1" t="s">
@@ -1702,14 +1682,14 @@
       <c r="I14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="4" t="s">
+      <c r="K14" s="86"/>
+      <c r="L14" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="7:14">
       <c r="H15" s="1" t="s">
@@ -1718,14 +1698,14 @@
       <c r="I15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="47"/>
-      <c r="L15" s="4" t="s">
+      <c r="K15" s="86"/>
+      <c r="L15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" spans="7:14">
       <c r="H16" s="1" t="s">
@@ -1734,14 +1714,14 @@
       <c r="I16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="4" t="s">
+      <c r="K16" s="86"/>
+      <c r="L16" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="32"/>
     </row>
     <row r="17" spans="8:13">
       <c r="H17" s="1" t="s">
@@ -1750,14 +1730,14 @@
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="47"/>
-      <c r="L17" s="4" t="s">
+      <c r="K17" s="86"/>
+      <c r="L17" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="5"/>
+      <c r="M17" s="32"/>
     </row>
     <row r="18" spans="8:13">
       <c r="H18" s="1" t="s">
@@ -1766,14 +1746,14 @@
       <c r="I18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="46" t="s">
+      <c r="J18" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="47"/>
-      <c r="L18" s="4" t="s">
+      <c r="K18" s="86"/>
+      <c r="L18" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="32"/>
     </row>
     <row r="19" spans="8:13">
       <c r="H19" s="1" t="s">
@@ -1782,14 +1762,14 @@
       <c r="I19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="46" t="s">
+      <c r="J19" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="4" t="s">
+      <c r="K19" s="86"/>
+      <c r="L19" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="32"/>
     </row>
     <row r="20" spans="8:13">
       <c r="H20" s="1" t="s">
@@ -1798,25 +1778,17 @@
       <c r="I20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="4" t="s">
+      <c r="K20" s="86"/>
+      <c r="L20" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="5"/>
+      <c r="M20" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="J11:K11"/>
@@ -1833,6 +1805,14 @@
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1843,7 +1823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C3B3EA-527A-4A0A-9436-E4E380FF4CB8}">
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1856,514 +1836,524 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="21">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="32" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="9">
+      <c r="E4" s="37"/>
+      <c r="F4" s="56">
         <v>350.82</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="11">
+      <c r="E5" s="37"/>
+      <c r="F5" s="38">
         <v>759.99</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="11">
+      <c r="E6" s="37"/>
+      <c r="F6" s="38">
         <v>382.5</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="11">
+      <c r="E7" s="37"/>
+      <c r="F7" s="38">
         <v>929.99</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="11">
+      <c r="E8" s="37"/>
+      <c r="F8" s="38">
         <v>619.99</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="11">
+      <c r="E9" s="37"/>
+      <c r="F9" s="38">
         <v>2499.9899999999998</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16">
+      <c r="E10" s="46"/>
+      <c r="F10" s="55">
         <v>1147.4000000000001</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="11">
+      <c r="E11" s="37"/>
+      <c r="F11" s="38">
         <v>1999</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="49">
         <v>8689.68</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="28"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:7" ht="21">
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32" t="s">
+      <c r="E15" s="53"/>
+      <c r="F15" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="33"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="11">
+      <c r="E16" s="37"/>
+      <c r="F16" s="38">
         <v>599</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="11">
+      <c r="E17" s="37"/>
+      <c r="F17" s="38">
         <v>759.99</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="11">
+      <c r="E18" s="37"/>
+      <c r="F18" s="38">
         <v>339.99</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="11">
+      <c r="E19" s="37"/>
+      <c r="F19" s="38">
         <v>929.99</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="11">
+      <c r="E20" s="37"/>
+      <c r="F20" s="38">
         <v>699.99</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="17">
+      <c r="E21" s="37"/>
+      <c r="F21" s="44">
         <v>1210</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16">
+      <c r="E22" s="46"/>
+      <c r="F22" s="55">
         <v>593.79999999999995</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="11">
+      <c r="E23" s="37"/>
+      <c r="F23" s="38">
         <v>1699.99</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="39">
         <v>6832.8</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="26" spans="2:7" ht="21">
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="32" t="s">
+      <c r="E27" s="53"/>
+      <c r="F27" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="33"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="37">
+      <c r="E28" s="37"/>
+      <c r="F28" s="48">
         <v>78</v>
       </c>
-      <c r="G28" s="6"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="37">
+      <c r="E29" s="37"/>
+      <c r="F29" s="48">
         <v>399</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="11">
+      <c r="E30" s="37"/>
+      <c r="F30" s="38">
         <v>285</v>
       </c>
-      <c r="G30" s="6"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="11">
+      <c r="E31" s="37"/>
+      <c r="F31" s="38">
         <v>209.9</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="11">
+      <c r="E32" s="37"/>
+      <c r="F32" s="38">
         <v>299.89999999999998</v>
       </c>
-      <c r="G32" s="6"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="17">
+      <c r="E33" s="37"/>
+      <c r="F33" s="44">
         <v>350</v>
       </c>
-      <c r="G33" s="6"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="39">
+      <c r="E34" s="46"/>
+      <c r="F34" s="47">
         <v>161.9</v>
       </c>
-      <c r="G34" s="15"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="11">
+      <c r="E35" s="37"/>
+      <c r="F35" s="38">
         <v>220.49</v>
       </c>
-      <c r="G35" s="6"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="39">
         <f>SUM(F28:F35)</f>
         <v>2004.19</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="D27:E27"/>
@@ -2380,32 +2370,21 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2414,7 +2393,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3555B16E-F4AA-4F17-A218-48F06C245ACD}">
-  <dimension ref="A2:V15"/>
+  <dimension ref="B2:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -2430,16 +2409,16 @@
     <col min="16" max="16" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="21">
-      <c r="B2" s="67" t="s">
+    <row r="2" spans="2:22" ht="21">
+      <c r="B2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="O2" s="69" t="s">
         <v>28</v>
       </c>
@@ -2451,373 +2430,362 @@
       <c r="U2" s="70"/>
       <c r="V2" s="71"/>
     </row>
-    <row r="3" spans="1:22" ht="18.75">
-      <c r="B3" s="86" t="s">
+    <row r="3" spans="2:22" ht="18.75">
+      <c r="B3" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="86" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88" t="s">
+      <c r="G3" s="77"/>
+      <c r="H3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="89" t="s">
+      <c r="O3" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="89" t="s">
+      <c r="P3" s="73"/>
+      <c r="Q3" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="R3" s="90"/>
-      <c r="S3" s="89" t="s">
+      <c r="R3" s="73"/>
+      <c r="S3" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="90"/>
-      <c r="U3" s="89" t="s">
+      <c r="T3" s="73"/>
+      <c r="U3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="90"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.75">
-      <c r="B4" s="61" t="s">
+      <c r="V3" s="73"/>
+    </row>
+    <row r="4" spans="2:22" ht="15.75">
+      <c r="B4" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="18">
+      <c r="G4" s="37"/>
+      <c r="H4" s="6">
         <v>70</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="78" t="s">
+      <c r="P4" s="63"/>
+      <c r="Q4" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="R4" s="79"/>
-      <c r="S4" s="76" t="s">
+      <c r="R4" s="37"/>
+      <c r="S4" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="T4" s="77"/>
-      <c r="U4" s="23">
+      <c r="T4" s="59"/>
+      <c r="U4" s="87">
         <v>59.99</v>
       </c>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.75">
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="8" t="s">
+      <c r="V4" s="88"/>
+    </row>
+    <row r="5" spans="2:22" ht="15.75">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="18">
+      <c r="G5" s="37"/>
+      <c r="H5" s="6">
         <v>30</v>
       </c>
-      <c r="O5" s="72"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="76" t="s">
+      <c r="O5" s="89"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="T5" s="77"/>
+      <c r="T5" s="59"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="15.75">
-      <c r="A6" s="45"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="14" t="s">
+    <row r="6" spans="2:22" ht="15.75">
+      <c r="B6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="57">
+      <c r="G6" s="46"/>
+      <c r="H6" s="19">
         <v>50</v>
       </c>
-      <c r="O6" s="74"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="77"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="59"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75">
-      <c r="A7" s="45"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="59"/>
-      <c r="O7" s="48" t="s">
+    <row r="7" spans="2:22" ht="15.75">
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="21"/>
+      <c r="O7" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="78" t="s">
+      <c r="P7" s="63"/>
+      <c r="Q7" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="R7" s="79"/>
-      <c r="S7" s="76" t="s">
+      <c r="R7" s="37"/>
+      <c r="S7" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="T7" s="77"/>
-      <c r="U7" s="4">
+      <c r="T7" s="59"/>
+      <c r="U7" s="31">
         <v>137.99</v>
       </c>
-      <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.75">
-      <c r="B8" s="63" t="s">
+      <c r="V7" s="32"/>
+    </row>
+    <row r="8" spans="2:22" ht="15.75">
+      <c r="B8" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="58">
+      <c r="G8" s="37"/>
+      <c r="H8" s="20">
         <v>175</v>
       </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="76" t="s">
+      <c r="O8" s="64"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="T8" s="77"/>
+      <c r="T8" s="59"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75">
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="8" t="s">
+    <row r="9" spans="2:22" ht="15.75">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="37"/>
+      <c r="F9" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="18">
+      <c r="G9" s="37"/>
+      <c r="H9" s="6">
         <v>120</v>
       </c>
-      <c r="O9" s="63"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="77"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="59"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75">
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="18"/>
-      <c r="O10" s="48" t="s">
+    <row r="10" spans="2:22" ht="15.75">
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="6"/>
+      <c r="O10" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="78" t="s">
+      <c r="P10" s="63"/>
+      <c r="Q10" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="R10" s="79"/>
-      <c r="S10" s="76" t="s">
+      <c r="R10" s="37"/>
+      <c r="S10" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="T10" s="77"/>
-      <c r="U10" s="4">
+      <c r="T10" s="59"/>
+      <c r="U10" s="31">
         <v>100</v>
       </c>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" ht="15.75">
-      <c r="B11" s="61" t="s">
+      <c r="V10" s="32"/>
+    </row>
+    <row r="11" spans="2:22" ht="15.75">
+      <c r="B11" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="65"/>
+      <c r="D11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="37"/>
+      <c r="F11" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="57">
+      <c r="G11" s="37"/>
+      <c r="H11" s="19">
         <v>225</v>
       </c>
-      <c r="O11" s="61"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="76" t="s">
+      <c r="O11" s="64"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="T11" s="77"/>
+      <c r="T11" s="59"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="2:22">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="37"/>
+      <c r="F12" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="18">
+      <c r="G12" s="37"/>
+      <c r="H12" s="6">
         <v>110</v>
       </c>
-      <c r="O12" s="63"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="77"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="59"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="15.75">
+    <row r="13" spans="2:22" ht="15.75">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="37"/>
+      <c r="F13" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="18">
+      <c r="G13" s="37"/>
+      <c r="H13" s="6">
         <v>350</v>
       </c>
-      <c r="O13" s="61" t="s">
+      <c r="O13" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="80" t="s">
+      <c r="P13" s="65"/>
+      <c r="Q13" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="R13" s="81"/>
-      <c r="S13" s="76" t="s">
+      <c r="R13" s="46"/>
+      <c r="S13" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="T13" s="77"/>
-      <c r="U13" s="4">
+      <c r="T13" s="59"/>
+      <c r="U13" s="31">
         <v>120.99</v>
       </c>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="76" t="s">
+      <c r="V13" s="32"/>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="T14" s="77"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="B15" s="103" t="s">
+      <c r="T14" s="59"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="41"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="36"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="43"/>
+      <c r="V15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="O5:P6"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="B2:H2"/>
@@ -2834,28 +2802,35 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2878,78 +2853,78 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="21">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="2:7" ht="21">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="97" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="98"/>
+      <c r="G4" s="83"/>
     </row>
     <row r="5" spans="2:7" ht="15.75">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="84">
+      <c r="E5" s="75"/>
+      <c r="F5" s="78">
         <v>37.979999999999997</v>
       </c>
-      <c r="G5" s="85"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="2:7" ht="15.75">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="84">
+      <c r="E6" s="75"/>
+      <c r="F6" s="78">
         <v>11.9</v>
       </c>
-      <c r="G6" s="85"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="2:7" ht="15.75">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="84">
+      <c r="E7" s="75"/>
+      <c r="F7" s="78">
         <v>106.7</v>
       </c>
-      <c r="G7" s="85"/>
+      <c r="G7" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="9">
